--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -39,12 +39,12 @@
     </comment>
     <comment authorId="0" ref="E1">
       <text>
-        <t xml:space="preserve">The number of base pairs (bp) sequenced from library fragment.</t>
+        <t xml:space="preserve">The number of base pairs (bp) sequenced for reads in a fastq file.</t>
       </text>
     </comment>
     <comment authorId="0" ref="F1">
       <text>
-        <t xml:space="preserve">The technology used to generate the data in this file. For multimodal datasets with concomitant profiling of biospecimen select all assays that apply. e.g., the GEX files from a CITE-seq experiment should be labeled with both 'scRNASeq' and 'CITESeq'.</t>
+        <t xml:space="preserve">The technology used to generate the data in this file. Select all assays that apply. e.g., the GEX fastq files from a CITE-seq experiment should be labeled with both 'scRNASeq' and 'CITESeq'.</t>
       </text>
     </comment>
     <comment authorId="0" ref="G1">
@@ -42525,19 +42525,19 @@
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
@@ -42545,9 +42545,9 @@
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$D1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42520,24 +42520,24 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
@@ -42545,9 +42545,9 @@
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42525,22 +42525,22 @@
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42535,9 +42535,9 @@
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
@@ -42545,9 +42545,9 @@
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$D1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -15244,8 +15244,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -15254,8 +15254,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -42520,33 +42520,33 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -15244,8 +15244,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -15254,8 +15254,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -42520,33 +42520,33 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42520,7 +42520,7 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42530,24 +42530,24 @@
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$D1 = "single specimen"</formula>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$D1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42520,7 +42520,7 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42530,17 +42530,17 @@
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$F1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42509,24 +42509,24 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
@@ -42534,9 +42534,9 @@
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42509,7 +42509,7 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42519,14 +42519,14 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
@@ -42534,9 +42534,9 @@
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42509,7 +42509,7 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42519,14 +42519,14 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
@@ -42534,9 +42534,9 @@
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -15236,8 +15236,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -15246,8 +15246,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -42509,33 +42509,33 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42514,13 +42514,13 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42524,19 +42524,19 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42529,12 +42529,12 @@
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42509,7 +42509,7 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42519,7 +42519,7 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -42529,12 +42529,12 @@
       <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42524,19 +42524,19 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
+  <conditionalFormatting sqref="G1:G1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
+      <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="H1:H1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$C1 = "single specimen"</formula>
+      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -15236,8 +15236,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -15246,8 +15246,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -42509,34 +42509,34 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$C1 = "multispecimen"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$C1 = "single specimen"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$C1 = "multispecimen"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/model_templates/ark.FastqFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.FastqFileAnnotationTemplate.xlsx
@@ -42514,12 +42514,12 @@
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$E1 = "feature barcode sequencing"</formula>
     </cfRule>
